--- a/Fases/FASE 2/planilla_costo.xlsx
+++ b/Fases/FASE 2/planilla_costo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Documents\GitHub\Capstone-equipo-6\Fases\FASE 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2922A63-FEDA-4366-9826-AB717F83EFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB68C926-D832-4C71-97A0-0FCFABDD3599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="873" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Remun., honor., incent." sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="122">
   <si>
     <t>ITEM</t>
   </si>
@@ -405,6 +405,12 @@
   </si>
   <si>
     <t>Patente del proyecto (INAPI)</t>
+  </si>
+  <si>
+    <t>30% ($15,235,841)</t>
+  </si>
+  <si>
+    <t>$ 68.561.287,00</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_ [$$-340A]* #,##0.00_ ;_ [$$-340A]* \-#,##0.00_ ;_ [$$-340A]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ [$$-340A]* #,##0.00_ ;_ [$$-340A]* \-#,##0.00_ ;_ [$$-340A]* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -831,17 +837,11 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -849,6 +849,12 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1306,10 +1312,10 @@
       <c r="I13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="69"/>
+      <c r="K13" s="75"/>
       <c r="L13" s="12" t="s">
         <v>14</v>
       </c>
@@ -1848,10 +1854,10 @@
       <c r="D4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="69"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="12" t="s">
         <v>14</v>
       </c>
@@ -2051,10 +2057,10 @@
       <c r="F4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="75"/>
       <c r="I4" s="12" t="s">
         <v>14</v>
       </c>
@@ -2550,10 +2556,10 @@
       <c r="J4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="69"/>
+      <c r="L4" s="75"/>
       <c r="M4" s="12" t="s">
         <v>14</v>
       </c>
@@ -2945,10 +2951,10 @@
       <c r="G4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="69"/>
+      <c r="I4" s="75"/>
       <c r="J4" s="12" t="s">
         <v>14</v>
       </c>
@@ -3387,10 +3393,10 @@
       <c r="G37" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="H37" s="68" t="s">
+      <c r="H37" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="I37" s="69"/>
+      <c r="I37" s="75"/>
       <c r="J37" s="12" t="s">
         <v>14</v>
       </c>
@@ -3670,10 +3676,10 @@
       <c r="E4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="69"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="12" t="s">
         <v>14</v>
       </c>
@@ -3922,10 +3928,10 @@
       <c r="E25" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="69"/>
+      <c r="G25" s="75"/>
       <c r="H25" s="12" t="s">
         <v>14</v>
       </c>
@@ -4254,10 +4260,10 @@
       <c r="E4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="69"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="12" t="s">
         <v>14</v>
       </c>
@@ -4424,10 +4430,10 @@
       <c r="E19" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="69"/>
+      <c r="G19" s="75"/>
       <c r="H19" s="12" t="s">
         <v>14</v>
       </c>
@@ -4590,10 +4596,10 @@
       <c r="E30" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="68" t="s">
+      <c r="F30" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G30" s="69"/>
+      <c r="G30" s="75"/>
       <c r="H30" s="12" t="s">
         <v>14</v>
       </c>
@@ -4807,10 +4813,10 @@
       <c r="E45" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="68" t="s">
+      <c r="F45" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G45" s="69"/>
+      <c r="G45" s="75"/>
       <c r="H45" s="12" t="s">
         <v>14</v>
       </c>
@@ -4837,7 +4843,7 @@
       <c r="A47" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="70">
+      <c r="B47" s="68">
         <v>50000</v>
       </c>
       <c r="C47" s="29">
@@ -4856,7 +4862,7 @@
       <c r="A48" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="70">
+      <c r="B48" s="68">
         <v>30000</v>
       </c>
       <c r="C48" s="29">
@@ -4875,7 +4881,7 @@
       <c r="A49" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="70">
+      <c r="B49" s="68">
         <v>10005</v>
       </c>
       <c r="C49" s="29">
@@ -5046,10 +5052,10 @@
       <c r="E62" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F62" s="68" t="s">
+      <c r="F62" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G62" s="69"/>
+      <c r="G62" s="75"/>
       <c r="H62" s="12" t="s">
         <v>14</v>
       </c>
@@ -5207,10 +5213,10 @@
       <c r="G4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="69"/>
+      <c r="I4" s="75"/>
       <c r="J4" s="12" t="s">
         <v>14</v>
       </c>
@@ -5591,8 +5597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5632,10 +5638,10 @@
       <c r="C5" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="69"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
@@ -5658,7 +5664,7 @@
       <c r="A7" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="72">
+      <c r="B7" s="70">
         <f>'Remun., honor., incent.'!H34</f>
         <v>37260000</v>
       </c>
@@ -5686,7 +5692,7 @@
       <c r="A8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="72">
+      <c r="B8" s="70">
         <f>Subcontratos!C12</f>
         <v>1000000</v>
       </c>
@@ -5714,7 +5720,7 @@
       <c r="A9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="71">
+      <c r="B9" s="69">
         <f>Capacitación!E22</f>
         <v>1260000</v>
       </c>
@@ -5742,7 +5748,7 @@
       <c r="A10" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="72"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="31">
         <f>+'Pasajes y viáticos'!J15</f>
         <v>0</v>
@@ -5767,7 +5773,7 @@
       <c r="A11" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="72">
+      <c r="B11" s="70">
         <f>'Equipos e infra'!F26</f>
         <v>8400000</v>
       </c>
@@ -5795,7 +5801,7 @@
       <c r="A12" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="72"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="31">
         <f>+'Equipos e infra'!G49</f>
         <v>0</v>
@@ -5820,7 +5826,7 @@
       <c r="A13" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="72">
+      <c r="B13" s="70">
         <f>'Software, fungibles'!D16</f>
         <v>1919364</v>
       </c>
@@ -5848,7 +5854,7 @@
       <c r="A14" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="72">
+      <c r="B14" s="70">
         <f>'Software, fungibles'!D42</f>
         <v>16740</v>
       </c>
@@ -5876,7 +5882,7 @@
       <c r="A15" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="72"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="31">
         <f>+Otros!E11</f>
         <v>0</v>
@@ -5901,7 +5907,7 @@
       <c r="A16" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="72">
+      <c r="B16" s="70">
         <f>Otros!D24</f>
         <v>300000</v>
       </c>
@@ -5929,7 +5935,7 @@
       <c r="A17" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="72">
+      <c r="B17" s="70">
         <f>Otros!D51</f>
         <v>630035</v>
       </c>
@@ -5957,7 +5963,7 @@
       <c r="A18" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="72">
+      <c r="B18" s="70">
         <v>2539307</v>
       </c>
       <c r="C18" s="31">
@@ -5984,7 +5990,7 @@
       <c r="A19" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="74"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="31">
         <f>+Otros!E66</f>
         <v>0</v>
@@ -6009,7 +6015,7 @@
       <c r="A20" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="73">
+      <c r="B20" s="71">
         <f>SUM(B7:B18)</f>
         <v>53325446</v>
       </c>
@@ -6079,10 +6085,10 @@
       <c r="C25" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="69"/>
+      <c r="E25" s="75"/>
       <c r="F25" s="12" t="s">
         <v>14</v>
       </c>
@@ -6268,8 +6274,8 @@
       <c r="A34" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="67">
-        <v>0.95</v>
+      <c r="B34" s="67" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6287,9 +6293,8 @@
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="75">
-        <f>B20</f>
-        <v>53325446</v>
+      <c r="B37" s="73" t="s">
+        <v>121</v>
       </c>
       <c r="C37" s="2"/>
     </row>
